--- a/Current Patients/TeSt1/DataBases/Data/TeSt1_Med_Data_Source.xlsx
+++ b/Current Patients/TeSt1/DataBases/Data/TeSt1_Med_Data_Source.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Perf Python Project\KetoGator\Current Patients\TeSt1\DataBases\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER\Robert\Documents\GitHub\KetoGator\Current Patients\TeSt1\DataBases\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B6A62-44A4-49EE-AFD6-3DFE25662D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E98E4-FEA0-4E64-AFE1-520C10482566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>MRNumber</t>
   </si>
@@ -73,6 +68,36 @@
   </si>
   <si>
     <t>comment!</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>RP-8/1/2020</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>MID0004</t>
+  </si>
+  <si>
+    <t>MID0005</t>
+  </si>
+  <si>
+    <t>MID0003</t>
+  </si>
+  <si>
+    <t>MID0001</t>
+  </si>
+  <si>
+    <t>MID0002</t>
   </si>
 </sst>
 </file>
@@ -399,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,8 +486,8 @@
       <c r="D2">
         <v>12345678</v>
       </c>
-      <c r="E2">
-        <v>12345678</v>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -478,6 +503,170 @@
       </c>
       <c r="M2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44014</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43863</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
